--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2444484.349295422</v>
+        <v>2442071.436789616</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673422</v>
       </c>
     </row>
     <row r="9">
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>251.0267230750013</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>307.5272957798206</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996196</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.0267230749996</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1664,10 +1664,10 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>233.0096925403077</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211452</v>
+        <v>220.07545323409</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286722</v>
+        <v>297.048745428672</v>
       </c>
       <c r="D17" t="n">
-        <v>187.7170846074993</v>
+        <v>286.4588952783474</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>313.7062237299263</v>
       </c>
       <c r="F17" t="n">
-        <v>338.651899399376</v>
+        <v>338.6518993993759</v>
       </c>
       <c r="G17" t="n">
-        <v>342.697579311118</v>
+        <v>342.6975793111179</v>
       </c>
       <c r="H17" t="n">
-        <v>226.383618044985</v>
+        <v>226.3836180449849</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584045</v>
+        <v>40.96361544584029</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972846</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165664</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277993</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750775</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361336</v>
+        <v>301.5069543361335</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6078338396019</v>
+        <v>111.6078338396017</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629245</v>
+        <v>99.02267475629228</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587697</v>
+        <v>80.3913266758768</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423378</v>
+        <v>78.20981630423361</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059586</v>
+        <v>77.19690168059569</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669284</v>
+        <v>97.80166191669267</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198539</v>
+        <v>76.53086857198522</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750271</v>
+        <v>28.12827406750255</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771194</v>
+        <v>20.70800632771179</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891063</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338336</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632773</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814924</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942554</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467016</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097592</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211452</v>
+        <v>314.509695321145</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286722</v>
+        <v>297.048745428672</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783475</v>
+        <v>286.4588952783474</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299264</v>
+        <v>239.9100887285293</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>342.697579311118</v>
+        <v>342.6975793111179</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449851</v>
+        <v>226.3836180449849</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584046</v>
+        <v>40.96361544584026</v>
       </c>
       <c r="T20" t="n">
-        <v>61.89768879588635</v>
+        <v>135.6938237972846</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165664</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277993</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750775</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361336</v>
+        <v>301.5069543361335</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137182</v>
+        <v>318.013792313718</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.6078338396019</v>
+        <v>111.6078338396017</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629245</v>
+        <v>99.02267475629228</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587697</v>
+        <v>80.3913266758768</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423378</v>
+        <v>78.20981630423361</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059586</v>
+        <v>77.19690168059569</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669284</v>
+        <v>97.80166191669267</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198539</v>
+        <v>76.53086857198522</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750272</v>
+        <v>28.12827406750254</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771196</v>
+        <v>20.70800632771177</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891063</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338336</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632773</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814924</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942554</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467016</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097592</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211452</v>
+        <v>314.509695321145</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.048745428672</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783475</v>
+        <v>286.4588952783474</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299263</v>
       </c>
       <c r="F23" t="n">
-        <v>338.651899399376</v>
+        <v>338.6518993993759</v>
       </c>
       <c r="G23" t="n">
-        <v>342.697579311118</v>
+        <v>342.6975793111179</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449851</v>
+        <v>226.3836180449849</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584045</v>
+        <v>40.9636154458403</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972846</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165664</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750775</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361336</v>
+        <v>301.5069543361335</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6078338396019</v>
+        <v>111.6078338396018</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629245</v>
+        <v>99.0226747562923</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587697</v>
+        <v>80.39132667587683</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423378</v>
+        <v>78.20981630423364</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059586</v>
+        <v>77.19690168059572</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669284</v>
+        <v>97.80166191669269</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198539</v>
+        <v>76.53086857198525</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750271</v>
+        <v>28.12827406750257</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771194</v>
+        <v>20.7080063277118</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891064</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338337</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632773</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814925</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942555</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467016</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536689</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2795,19 +2795,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768727</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>133.1067657762839</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.20693826439368</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>124.3541982182259</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333702</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7340562419007</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302255</v>
+        <v>310.7752483302252</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377521</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874275</v>
       </c>
       <c r="E41" t="n">
-        <v>128.8425788367553</v>
+        <v>309.9717767390064</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084563</v>
+        <v>334.917452408456</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201983</v>
+        <v>201.446526846369</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540653</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492072</v>
+        <v>37.22916845492045</v>
       </c>
       <c r="T41" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063647</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>179.0365786256466</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368795</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841579</v>
+        <v>277.2823753841576</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452139</v>
+        <v>297.7725073452136</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227982</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486819</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537271</v>
+        <v>95.28822776537244</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495723</v>
+        <v>76.65687968495696</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331405</v>
+        <v>74.47536931331378</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967612</v>
+        <v>73.46245468967585</v>
       </c>
       <c r="G43" t="n">
-        <v>94.0672149257731</v>
+        <v>94.06721492577283</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106566</v>
+        <v>72.79642158106539</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658299</v>
+        <v>24.3938270765827</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679222</v>
+        <v>48.38621557233726</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981865</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429141</v>
+        <v>147.5903559429138</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723574</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905729</v>
+        <v>180.1790499905726</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033359</v>
+        <v>214.5644050033356</v>
       </c>
       <c r="X43" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557817</v>
       </c>
       <c r="Y43" t="n">
-        <v>178.0387162543802</v>
+        <v>146.6260600188394</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302255</v>
+        <v>310.7752483302252</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377521</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874275</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390067</v>
+        <v>309.9717767390064</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084563</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201983</v>
+        <v>313.7148082007593</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>222.6491710540651</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492072</v>
+        <v>37.22916845492045</v>
       </c>
       <c r="T44" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063647</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256469</v>
+        <v>179.0365786256466</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368795</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841579</v>
+        <v>277.2823753841576</v>
       </c>
       <c r="X44" t="n">
-        <v>160.255901871381</v>
+        <v>297.7725073452136</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227982</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486819</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537271</v>
+        <v>95.28822776537244</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495723</v>
+        <v>76.65687968495696</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331405</v>
+        <v>74.47536931331378</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967612</v>
+        <v>73.46245468967585</v>
       </c>
       <c r="G46" t="n">
-        <v>94.0672149257731</v>
+        <v>94.06721492577283</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106566</v>
+        <v>72.79642158106539</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658299</v>
+        <v>24.3938270765827</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.38621557233276</v>
+        <v>16.97355933679194</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981865</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429141</v>
+        <v>147.5903559429138</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723574</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905729</v>
+        <v>180.1790499905726</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033359</v>
+        <v>245.9770612388808</v>
       </c>
       <c r="X46" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557817</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188394</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464212</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1301.367519464212</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1301.367519464212</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5084,7 +5084,7 @@
         <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580261</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5163,7 +5163,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
         <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770414</v>
@@ -5200,10 +5200,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,7 +5218,7 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
         <v>2256.956805813346</v>
@@ -5227,22 +5227,22 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1654.93647038346</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.423586391121</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.607520732444</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="E14" t="n">
-        <v>684.2689010822733</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5291,7 +5291,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2662.792501840253</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2336.776376527247</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1994.086677499508</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5400,7 +5400,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5413,13 +5413,13 @@
         <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770415</v>
@@ -5428,13 +5428,13 @@
         <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328086</v>
@@ -5458,7 +5458,7 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
         <v>2112.720554588246</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874609</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1473.076688949003</v>
+        <v>1889.6908651114</v>
       </c>
       <c r="C17" t="n">
-        <v>1173.027451142263</v>
+        <v>1589.641627304661</v>
       </c>
       <c r="D17" t="n">
-        <v>983.4142343670107</v>
+        <v>1300.289207831583</v>
       </c>
       <c r="E17" t="n">
         <v>983.4142343670107</v>
@@ -5504,19 +5504,19 @@
         <v>641.3416087110754</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897441</v>
+        <v>295.1824376897439</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,40 +5525,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T17" t="n">
-        <v>3147.163963787832</v>
+        <v>3147.163963787831</v>
       </c>
       <c r="U17" t="n">
-        <v>2962.546766195341</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V17" t="n">
-        <v>2700.397157985442</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W17" t="n">
         <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2111.989302721593</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1790.763249879453</v>
+        <v>2111.989302721592</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061027</v>
+        <v>609.2207265061014</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118678</v>
+        <v>509.1978227118668</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332043</v>
+        <v>427.9944624332034</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844833</v>
+        <v>348.9946479844825</v>
       </c>
       <c r="F19" t="n">
-        <v>271.017979620245</v>
+        <v>271.0179796202445</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286361</v>
+        <v>172.2284221286357</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016595</v>
+        <v>94.92451448016577</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.96351892571</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.371895631577</v>
+        <v>1346.371895631574</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.70149455199</v>
+        <v>1645.701494551988</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.30899498565</v>
+        <v>1878.308994985647</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138164</v>
+        <v>1955.919291138161</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029364</v>
+        <v>1935.002113029362</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.22950798986</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.376171693059</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952375</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.41537488016</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976873</v>
+        <v>1032.911483976872</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125282</v>
+        <v>873.8352122125267</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026702</v>
+        <v>721.9559122026689</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1547.618239455466</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C20" t="n">
-        <v>1247.569001648726</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D20" t="n">
-        <v>958.216582175648</v>
+        <v>883.675031669186</v>
       </c>
       <c r="E20" t="n">
-        <v>641.3416087110757</v>
+        <v>641.3416087110752</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110757</v>
+        <v>641.3416087110752</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897443</v>
+        <v>295.1824376897439</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T20" t="n">
-        <v>3221.705514294295</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3037.088316701803</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2774.938708491905</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2491.083332355463</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2186.530853228055</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y20" t="n">
-        <v>1865.304800385915</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061027</v>
+        <v>609.2207265061014</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118678</v>
+        <v>509.1978227118668</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332043</v>
+        <v>427.9944624332034</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844833</v>
+        <v>348.9946479844825</v>
       </c>
       <c r="F22" t="n">
-        <v>271.017979620245</v>
+        <v>271.0179796202444</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286361</v>
+        <v>172.2284221286357</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016597</v>
+        <v>94.92451448016575</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551987</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985647</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138164</v>
+        <v>1955.919291138161</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029364</v>
+        <v>1935.002113029362</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.22950798986</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.376171693059</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952375</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.41537488016</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976873</v>
+        <v>1032.911483976872</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125282</v>
+        <v>873.8352122125267</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026702</v>
+        <v>721.9559122026689</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237165</v>
+        <v>1898.193195237163</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430425</v>
+        <v>1598.143957430424</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957347</v>
+        <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927748</v>
+        <v>991.9165644927737</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368394</v>
+        <v>649.8439388368383</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155071</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794658</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794658</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8935775169721</v>
+        <v>361.9270325895996</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6169096522716</v>
+        <v>695.7464062794461</v>
       </c>
       <c r="L23" t="n">
-        <v>1369.651122900681</v>
+        <v>1146.780619527855</v>
       </c>
       <c r="M23" t="n">
-        <v>1903.183027572605</v>
+        <v>1680.31252419978</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.672062348333</v>
+        <v>2227.091341258562</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.64453322767</v>
+        <v>2730.063812137899</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584848</v>
+        <v>3443.418899584844</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.70526134053</v>
+        <v>3691.705261340527</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897333</v>
+        <v>3750.722327897329</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.3449385581</v>
+        <v>3709.344938558097</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075994</v>
+        <v>3572.280470075991</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483503</v>
+        <v>3387.6632724835</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273604</v>
+        <v>3125.513664273602</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137162</v>
+        <v>2841.65828813716</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009754</v>
+        <v>2537.105809009752</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167615</v>
+        <v>2215.879756167613</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068715</v>
+        <v>950.0461846068717</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257445</v>
+        <v>775.5931553257448</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644934</v>
+        <v>626.6587456644935</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590378</v>
+        <v>467.421290659038</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859229</v>
+        <v>320.886732685923</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185412</v>
+        <v>184.5236325185411</v>
       </c>
       <c r="H24" t="n">
-        <v>94.0217381564087</v>
+        <v>94.02173815640862</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794658</v>
       </c>
       <c r="J24" t="n">
         <v>168.6917160485639</v>
       </c>
       <c r="K24" t="n">
-        <v>406.955915028911</v>
+        <v>406.9559150289111</v>
       </c>
       <c r="L24" t="n">
         <v>773.6540753415765</v>
@@ -6105,10 +6105,10 @@
         <v>1788.110677325628</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.873320597426</v>
+        <v>1533.873320597427</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.021820391893</v>
+        <v>1326.021820391894</v>
       </c>
       <c r="Y24" t="n">
         <v>1118.26152162694</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318659</v>
+        <v>617.7230566318649</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376311</v>
+        <v>517.7001528376302</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589675</v>
+        <v>436.4967925589667</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102465</v>
+        <v>357.4969781102458</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460083</v>
+        <v>279.5203097460077</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543993</v>
+        <v>180.7307522543989</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059292</v>
+        <v>103.426844605929</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794658</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1370790048822</v>
+        <v>120.1370790048821</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537586</v>
+        <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022548</v>
+        <v>640.6840604022545</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018038</v>
+        <v>984.8411060018036</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.87422575734</v>
+        <v>1354.874225757338</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677754</v>
+        <v>1654.203824677751</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111413</v>
+        <v>1886.81132511141</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263928</v>
+        <v>1964.421621263925</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155128</v>
+        <v>1943.504443155126</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115626</v>
+        <v>1820.731838115624</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818824</v>
+        <v>1667.878501818823</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.68891407814</v>
+        <v>1447.688914078138</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005925</v>
+        <v>1261.917705005924</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102637</v>
+        <v>1041.413814102635</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382914</v>
+        <v>882.3375423382902</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284335</v>
+        <v>730.4582423284323</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>334.8879947388204</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>668.7073684286668</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1119.741581677075</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1653.273486349</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2200.052303407782</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737237</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6257,10 +6257,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6303,13 +6303,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6385,13 +6385,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,25 +6400,25 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398477</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,25 +6461,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.094314970129</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>2959.066785849466</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3672.421873296411</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,10 +6619,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.404136464984</v>
+        <v>1119.741581677074</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.936041136908</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.71485819569</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075027</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6844,10 +6844,10 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6862,7 +6862,7 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6877,10 +6877,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
@@ -6920,22 +6920,22 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810562</v>
@@ -6944,34 +6944,34 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,34 +7032,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909357</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368722</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983799</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1884.661277114357</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1692.975392941184</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.880212084553</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1379.44877978404</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151997</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.689990688879</v>
+        <v>788.1499352728561</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647055</v>
+        <v>658.8318189486821</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211754</v>
+        <v>536.7106743789953</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,10 +7254,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,10 +7269,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170928</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630292</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7330,16 +7330,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632531</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1478.120214357884</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151997</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150366</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X40" t="n">
-        <v>706.0290052170193</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.9078606473325</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1684.099067285371</v>
+        <v>1503.254038370579</v>
       </c>
       <c r="C41" t="n">
-        <v>1387.821998156328</v>
+        <v>1206.976969241536</v>
       </c>
       <c r="D41" t="n">
-        <v>1102.241747360946</v>
+        <v>921.3967184461548</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339209</v>
+        <v>608.2939136592796</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556821</v>
+        <v>269.993456681041</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120474</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7409,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7439,22 +7439,22 @@
         <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3154.708301143225</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3154.708301143225</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>2896.330861611023</v>
+        <v>2715.48583269623</v>
       </c>
       <c r="W41" t="n">
-        <v>2616.247654152278</v>
+        <v>2435.402625237485</v>
       </c>
       <c r="X41" t="n">
-        <v>2315.467343702567</v>
+        <v>2134.622314787774</v>
       </c>
       <c r="Y41" t="n">
-        <v>1998.013459538124</v>
+        <v>1817.168430623331</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622257</v>
+        <v>582.8155457622238</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456877</v>
+        <v>486.564810645686</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447207</v>
+        <v>409.1336190447194</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736964</v>
+        <v>333.9059732736953</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871549</v>
+        <v>259.7014735871541</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732427</v>
+        <v>164.6840847732421</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246927</v>
+        <v>91.15234580246897</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.149538657389</v>
+        <v>1878.41958286391</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295584</v>
+        <v>1759.419146502105</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.067934676479</v>
+        <v>1610.337978883</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820013</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218973</v>
+        <v>1211.921519425495</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999035</v>
       </c>
       <c r="X43" t="n">
-        <v>871.6156499067332</v>
+        <v>839.8856941132553</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810966</v>
+        <v>691.7785627810944</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1642.159700465357</v>
+        <v>1503.254038370578</v>
       </c>
       <c r="C44" t="n">
-        <v>1345.882631336314</v>
+        <v>1206.976969241536</v>
       </c>
       <c r="D44" t="n">
-        <v>1060.302380540932</v>
+        <v>921.3967184461544</v>
       </c>
       <c r="E44" t="n">
-        <v>747.1995757540567</v>
+        <v>608.2939136592787</v>
       </c>
       <c r="F44" t="n">
-        <v>408.8991187758181</v>
+        <v>608.2939136592787</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>291.4102690120471</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,10 +7646,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.708301143225</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.86327222843</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2715.485832696228</v>
+        <v>2715.48583269623</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.402625237483</v>
+        <v>2435.402625237485</v>
       </c>
       <c r="X44" t="n">
-        <v>2273.527976882553</v>
+        <v>2134.622314787774</v>
       </c>
       <c r="Y44" t="n">
-        <v>1956.07409271811</v>
+        <v>1817.168430623331</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,16 +7728,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622257</v>
+        <v>582.8155457622238</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456877</v>
+        <v>486.564810645686</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447207</v>
+        <v>409.1336190447194</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736964</v>
+        <v>333.9059732736953</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871549</v>
+        <v>259.7014735871541</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732427</v>
+        <v>164.6840847732421</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246927</v>
+        <v>91.15234580246897</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1878.419582863914</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S46" t="n">
-        <v>1759.419146502109</v>
+        <v>1791.149102295585</v>
       </c>
       <c r="T46" t="n">
-        <v>1610.337978883004</v>
+        <v>1642.06793467648</v>
       </c>
       <c r="U46" t="n">
-        <v>1393.920559820016</v>
+        <v>1425.650515613493</v>
       </c>
       <c r="V46" t="n">
-        <v>1211.921519425498</v>
+        <v>1243.651475218975</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999065</v>
+        <v>995.1897971999035</v>
       </c>
       <c r="X46" t="n">
-        <v>839.885694113258</v>
+        <v>839.8856941132553</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.7785627810966</v>
+        <v>691.7785627810944</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331808</v>
+        <v>161.2833466331815</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772609</v>
+        <v>190.4708996772619</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114931</v>
+        <v>199.0214867114944</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499963</v>
+        <v>189.4604205499977</v>
       </c>
       <c r="N8" t="n">
-        <v>187.865675725395</v>
+        <v>187.8656757253964</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001298</v>
+        <v>190.8661912001311</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610375</v>
+        <v>197.7493741610386</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168178</v>
+        <v>197.1608845168187</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723701</v>
+        <v>115.0671825723705</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484541</v>
+        <v>117.7238752484548</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888314</v>
+        <v>111.5038326888323</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586502</v>
+        <v>110.5673213586512</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809757</v>
+        <v>98.93952256809868</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195521</v>
+        <v>112.9545713195531</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755398</v>
+        <v>110.1843514755406</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137822</v>
+        <v>124.0787517137827</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747614</v>
+        <v>119.356265474762</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960287</v>
+        <v>122.5532519960292</v>
       </c>
       <c r="N10" t="n">
-        <v>111.702314729057</v>
+        <v>111.7023147290576</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297869</v>
+        <v>123.6934388297874</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182091</v>
+        <v>125.0956219182096</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.0236919925531</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>96.67698759287418</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>65.51711806374328</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>62.52018570663739</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>62.52018570663733</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.40458911672883</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>78.40458911672857</v>
+        <v>65.51711806374198</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0698909884586</v>
+        <v>15.06989098845861</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>83.92851037866784</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>31.73550625764046</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866964</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>69.25613955851274</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>94.43424208705501</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>98.74181067084822</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299264</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.013792313718</v>
       </c>
     </row>
     <row r="18">
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>73.79613500139698</v>
       </c>
       <c r="F20" t="n">
-        <v>338.651899399376</v>
+        <v>338.6518993993759</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>73.79613500139843</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>181.1291979022514</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>137.5166054738291</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>222.6491710540651</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256469</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>334.917452408456</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>25.24832411943879</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540654</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>137.5166054738329</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>850694.4498422476</v>
+        <v>850694.4498422481</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719390.063448351</v>
+        <v>719390.0634483509</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741293.9676517795</v>
+        <v>741293.9676517796</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>788411.2479512373</v>
+        <v>788411.2479512371</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800491.5950771117</v>
+        <v>800491.5950771116</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800491.5950771117</v>
+        <v>800491.5950771116</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>800491.5950771117</v>
+        <v>800491.5950771116</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745143.5102989594</v>
+        <v>745143.5102989597</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>745143.5102989594</v>
+        <v>745143.5102989597</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415567</v>
+        <v>675902.9794415566</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415565</v>
+        <v>675902.979441557</v>
       </c>
       <c r="D2" t="n">
-        <v>675918.2704729638</v>
+        <v>675918.2704729633</v>
       </c>
       <c r="E2" t="n">
-        <v>630738.0831591209</v>
+        <v>630738.0831591203</v>
       </c>
       <c r="F2" t="n">
-        <v>630738.0831591204</v>
+        <v>630738.0831591205</v>
       </c>
       <c r="G2" t="n">
-        <v>650273.9977189358</v>
+        <v>650273.9977189356</v>
       </c>
       <c r="H2" t="n">
-        <v>650273.9977189356</v>
+        <v>650273.997718935</v>
       </c>
       <c r="I2" t="n">
-        <v>677359.4601380344</v>
+        <v>677359.4601380345</v>
       </c>
       <c r="J2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="K2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="N2" t="n">
         <v>677359.4601380338</v>
       </c>
       <c r="O2" t="n">
-        <v>653707.3735934469</v>
+        <v>653707.3735934474</v>
       </c>
       <c r="P2" t="n">
-        <v>653707.3735934469</v>
+        <v>653707.3735934473</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004265024</v>
+        <v>49603.99004264853</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112466</v>
+        <v>1114814.601112468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899444</v>
+        <v>16999.2077789944</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.8516171636</v>
+        <v>28261.85161716342</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225409</v>
+        <v>40637.45238225415</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899423</v>
+        <v>16999.20777899441</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>434286.8804955489</v>
+        <v>434286.8804955495</v>
       </c>
       <c r="E4" t="n">
-        <v>60045.38930863549</v>
+        <v>60045.38930863547</v>
       </c>
       <c r="F4" t="n">
-        <v>60045.38930863549</v>
+        <v>60045.38930863545</v>
       </c>
       <c r="G4" t="n">
-        <v>73454.0457244369</v>
+        <v>73454.04572443705</v>
       </c>
       <c r="H4" t="n">
-        <v>73454.04572443693</v>
+        <v>73454.04572443696</v>
       </c>
       <c r="I4" t="n">
-        <v>90253.02344554524</v>
+        <v>90253.0234455452</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699586</v>
+        <v>88960.95519699575</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.9551969959</v>
+        <v>88960.95519699575</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699575</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="O4" t="n">
-        <v>75820.46586589146</v>
+        <v>75820.46586589157</v>
       </c>
       <c r="P4" t="n">
-        <v>75820.46586589146</v>
+        <v>75820.46586589157</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253472</v>
+        <v>34890.26850253468</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="G5" t="n">
         <v>80041.87632024709</v>
@@ -26488,7 +26488,7 @@
         <v>80041.87632024709</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582715</v>
+        <v>86503.64721582711</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,19 +26497,19 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.82754432675</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.82754432675</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189875.3888925916</v>
+        <v>189870.9753147233</v>
       </c>
       <c r="C6" t="n">
-        <v>189875.3888925913</v>
+        <v>189870.9753147237</v>
       </c>
       <c r="D6" t="n">
-        <v>157137.1314322299</v>
+        <v>157132.7641908213</v>
       </c>
       <c r="E6" t="n">
-        <v>-622377.4005837627</v>
+        <v>-622518.677483701</v>
       </c>
       <c r="F6" t="n">
-        <v>492437.2005287032</v>
+        <v>492295.9236287672</v>
       </c>
       <c r="G6" t="n">
-        <v>479778.8678952574</v>
+        <v>479696.7907364112</v>
       </c>
       <c r="H6" t="n">
-        <v>496778.0756742517</v>
+        <v>496695.9985154051</v>
       </c>
       <c r="I6" t="n">
-        <v>472340.9378594984</v>
+        <v>472340.9378594988</v>
       </c>
       <c r="J6" t="n">
         <v>458383.1108839779</v>
@@ -26549,19 +26549,19 @@
         <v>499020.563266232</v>
       </c>
       <c r="L6" t="n">
-        <v>482021.3554872373</v>
+        <v>482021.3554872377</v>
       </c>
       <c r="M6" t="n">
-        <v>300488.863920878</v>
+        <v>300488.8639208778</v>
       </c>
       <c r="N6" t="n">
-        <v>502656.9639136025</v>
+        <v>502656.9639136023</v>
       </c>
       <c r="O6" t="n">
-        <v>497531.0801832288</v>
+        <v>497459.4071937</v>
       </c>
       <c r="P6" t="n">
-        <v>497531.0801832288</v>
+        <v>497459.4071936999</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076727</v>
+        <v>57.92057351076527</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743332</v>
+        <v>937.6805819743323</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374282</v>
+        <v>21.249009723743</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484977</v>
+        <v>25.72612689484956</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374279</v>
+        <v>21.24900972374301</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951243</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076727</v>
+        <v>57.92057351076527</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082531</v>
+        <v>1031.856127082533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720406</v>
+        <v>106.2791265720399</v>
       </c>
       <c r="J4" t="n">
-        <v>76.6558792342812</v>
+        <v>76.65587923428211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374282</v>
+        <v>21.249009723743</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484977</v>
+        <v>25.72612689484956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.0901626244419</v>
+        <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.499073850712</v>
+        <v>201.4990738507123</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.24257230981</v>
+        <v>135.2425723098106</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596057</v>
+        <v>203.7140793596059</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858938</v>
+        <v>85.10723188858954</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643161</v>
+        <v>92.42270548643188</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659312</v>
+        <v>169.3690802659313</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508933</v>
+        <v>199.6625682508934</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112973</v>
+        <v>152.3094707112975</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284922</v>
+        <v>85.97478175284947</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657784</v>
+        <v>10.13465691657826</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156853</v>
+        <v>77.41603665156883</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348047</v>
+        <v>172.5970773348048</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005765</v>
+        <v>222.1963728005766</v>
       </c>
       <c r="T10" t="n">
         <v>227.499316156969</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>28.91388186835286</v>
       </c>
       <c r="N19" t="n">
-        <v>28.91388186835519</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.91388186835229</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.91388186835559</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233556</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>28.91388186835519</v>
+        <v>28.91388186835292</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233553</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>46.72521440565345</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.72521440565367</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>55.47778196371135</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>55.4777819637122</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325512</v>
+        <v>40.54593709771007</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.54593709771459</v>
+        <v>71.95859333325539</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>40.54593709771459</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325512</v>
+        <v>40.54593709771018</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325512</v>
+        <v>71.95859333325539</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764511</v>
+        <v>0.2328465266764431</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325206</v>
+        <v>2.384639491325124</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693892</v>
+        <v>8.976815719693583</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350547</v>
+        <v>19.76255789350478</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771965</v>
+        <v>29.61895136771863</v>
       </c>
       <c r="L8" t="n">
-        <v>36.7449282584941</v>
+        <v>36.74492825849283</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727643</v>
+        <v>40.88581267727503</v>
       </c>
       <c r="N8" t="n">
-        <v>41.5473878711959</v>
+        <v>41.54738787119447</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155694</v>
+        <v>39.23202022155559</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423205</v>
+        <v>33.4836215942309</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763163</v>
+        <v>25.14480535763077</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133964</v>
+        <v>14.62654563133913</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639636</v>
+        <v>5.305990226639453</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526165</v>
+        <v>1.01928567052613</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411609</v>
+        <v>0.01862772213411545</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986315</v>
+        <v>0.1245838750986272</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610468</v>
+        <v>1.203217951610426</v>
       </c>
       <c r="I9" t="n">
-        <v>4.28940096282569</v>
+        <v>4.289400962825543</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429658</v>
+        <v>11.77044409429618</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590489</v>
+        <v>20.1175637259042</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104277</v>
+        <v>27.05054709104184</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336816</v>
+        <v>31.56671256336707</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523574</v>
+        <v>32.40218951523462</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489238</v>
+        <v>29.64167312489135</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879043</v>
+        <v>23.79005593878961</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223935</v>
+        <v>15.9030223722388</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211526</v>
+        <v>7.73512866621126</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906596</v>
+        <v>2.314090837906517</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282557</v>
+        <v>0.5021604439282383</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278391</v>
+        <v>0.008196307572278108</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390885</v>
+        <v>0.1044469358390849</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693513</v>
+        <v>0.9286282113693192</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960954</v>
+        <v>3.141004215960845</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823557</v>
+        <v>7.384398363823302</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930501</v>
+        <v>12.13483490930459</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647685</v>
+        <v>15.52841080647632</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157639</v>
+        <v>16.37253195157583</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617617</v>
+        <v>15.98322973617561</v>
       </c>
       <c r="O10" t="n">
-        <v>14.7630996220559</v>
+        <v>14.76309962205539</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093848</v>
+        <v>12.63238213093805</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125858</v>
+        <v>8.746006600125556</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364833</v>
+        <v>4.696314042364671</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395751</v>
+        <v>1.820225236395688</v>
       </c>
       <c r="T10" t="n">
-        <v>0.446273271312469</v>
+        <v>0.4462732713124536</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591223016</v>
+        <v>0.00569710559122282</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,7 +35574,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618366</v>
       </c>
       <c r="N19" t="n">
-        <v>373.7708280358952</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129101</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>331.2670120909921</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.3081204062492</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>289.8106929612657</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,13 +36367,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>648.9788230057857</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36525,7 +36525,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>373.7708280358952</v>
+        <v>373.770828035893</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.3041190324558</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>461.2821719260093</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>614.8220211195488</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>329.1988939204483</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>533.9947035090605</v>
+        <v>521.1072324560741</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
